--- a/biology/Botanique/Veillonia_alba/Veillonia_alba.xlsx
+++ b/biology/Botanique/Veillonia_alba/Veillonia_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veillonia alba est une espèce de la famille des Arecaceae (Palmiers). Cette espèce endémique de Nouvelle-Calédonie est la seule du genre Veillonia décrite à l'heure actuelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe. Les stipes sont solitaires, de taille moyenne, de couleur marron-verte et encerclés d'anneaux espacés à intervalles réguliers. Ils mesurent jusqu'à 7 mètres de hauteur et font 12 cm de diamètre. Le haut du tronc est entouré d'une couche de cire.
 Feuilles. Une dizaine de feuilles composent la couronne. Le manchon central mesure environ 1 mètre et est d'une couleur vert-blanchâtre ; il est entouré de cire à la base. Le pétiole mesure jusqu'à 60 cm de long, et la palme, au rachis arqué, peut mesurer jusqu'à 3 mètres, avec des écailles squameuses sur le dessous. Environ 45 segments rigides, crochus, aux nervures proéminentes, sont disposés de chaque côté le long du rachis central. Les folioles mesurent de 5 mm à 6,2 cm de largeur, et de 24 cm à 1,2 m de long.</t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille : Arecoideae
 Tribu : Areceae
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unique espèce du genre pousse en Nouvelle-Calédonie, dans le Nord-Est de la grande terre, sur le massif du mont Panie et aux alentours, dans des forêts humides, sur un sol composés de schiste et de gneiss. Elle pousse à une altitude de 200 à 600 mètres, mais on la retrouve également à plus haute altitude, ou sur le bord de mer, de manière plus isolée.
 </t>
